--- a/data/mall-cloud-alibaba/product-server_structure.xlsx
+++ b/data/mall-cloud-alibaba/product-server_structure.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2089" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="231">
   <si>
     <t>Class Name</t>
   </si>
@@ -462,102 +462,102 @@
     <t>subjectList</t>
   </si>
   <si>
+    <t>brandList</t>
+  </si>
+  <si>
+    <t>homeFlashPromotion</t>
+  </si>
+  <si>
+    <t>newProductList</t>
+  </si>
+  <si>
     <t>hotProductList</t>
   </si>
   <si>
     <t>advertiseList</t>
   </si>
   <si>
-    <t>newProductList</t>
-  </si>
-  <si>
-    <t>brandList</t>
-  </si>
-  <si>
-    <t>homeFlashPromotion</t>
+    <t>productList</t>
+  </si>
+  <si>
+    <t>nextStartTime</t>
   </si>
   <si>
     <t>nextEndTime</t>
   </si>
   <si>
+    <t>endTime</t>
+  </si>
+  <si>
     <t>startTime</t>
   </si>
   <si>
-    <t>endTime</t>
-  </si>
-  <si>
-    <t>productList</t>
-  </si>
-  <si>
-    <t>nextStartTime</t>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>productAttributeList</t>
   </si>
   <si>
     <t>skuStockList</t>
   </si>
   <si>
+    <t>productFullReductionList</t>
+  </si>
+  <si>
     <t>productLadderList</t>
   </si>
   <si>
+    <t>productAttributeValueList</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
     <t>couponList</t>
   </si>
   <si>
-    <t>productFullReductionList</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>productAttributeList</t>
-  </si>
-  <si>
-    <t>productAttributeValueList</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>homeService</t>
   </si>
   <si>
+    <t>productCategoryMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryMapper</t>
+  </si>
+  <si>
+    <t>subjectMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.CmsSubjectMapper</t>
+  </si>
+  <si>
+    <t>subjectFeign</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.SubjectFeign</t>
+  </si>
+  <si>
     <t>productMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.PmsProductMapper</t>
   </si>
   <si>
+    <t>couponFeign</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.client.CouponFeign</t>
+  </si>
+  <si>
     <t>homeDao</t>
   </si>
   <si>
-    <t>couponFeign</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.CouponFeign</t>
-  </si>
-  <si>
-    <t>subjectMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.CmsSubjectMapper</t>
-  </si>
-  <si>
-    <t>subjectFeign</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.client.SubjectFeign</t>
-  </si>
-  <si>
-    <t>productCategoryMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductCategoryMapper</t>
+    <t>flashPromotionCount</t>
   </si>
   <si>
     <t>flashPromotionPrice</t>
   </si>
   <si>
-    <t>flashPromotionCount</t>
-  </si>
-  <si>
     <t>flashPromotionLimit</t>
   </si>
   <si>
@@ -573,34 +573,34 @@
     <t>children</t>
   </si>
   <si>
+    <t>productFullReductionMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductFullReductionMapper</t>
+  </si>
+  <si>
     <t>productAttributeMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.PmsProductAttributeMapper</t>
   </si>
   <si>
-    <t>productFullReductionMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductFullReductionMapper</t>
+    <t>skuStockMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsSkuStockMapper</t>
+  </si>
+  <si>
+    <t>productLadderMapper</t>
+  </si>
+  <si>
+    <t>com.mtcarpenter.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
     <t>productAttributeValueMapper</t>
   </si>
   <si>
     <t>com.mtcarpenter.mall.mapper.PmsProductAttributeValueMapper</t>
-  </si>
-  <si>
-    <t>skuStockMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsSkuStockMapper</t>
-  </si>
-  <si>
-    <t>productLadderMapper</t>
-  </si>
-  <si>
-    <t>com.mtcarpenter.mall.mapper.PmsProductLadderMapper</t>
   </si>
   <si>
     <t>portalProductDao</t>
@@ -4571,7 +4571,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4736,10 +4736,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16">
@@ -4747,7 +4747,7 @@
         <v>12</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s" s="0">
         <v>221</v>
@@ -4758,7 +4758,7 @@
         <v>12</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s" s="0">
         <v>221</v>
@@ -4769,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s" s="0">
         <v>221</v>
@@ -4780,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s" s="0">
         <v>221</v>
@@ -4791,7 +4791,7 @@
         <v>12</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>221</v>
@@ -4802,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s" s="0">
         <v>221</v>
@@ -4813,7 +4813,7 @@
         <v>12</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s" s="0">
         <v>221</v>
@@ -4824,7 +4824,7 @@
         <v>12</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s" s="0">
         <v>221</v>
@@ -4835,7 +4835,7 @@
         <v>12</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>221</v>
@@ -4843,13 +4843,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
@@ -4857,10 +4857,10 @@
         <v>51</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
@@ -4868,7 +4868,7 @@
         <v>51</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>221</v>
@@ -4879,7 +4879,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>221</v>
@@ -4890,7 +4890,7 @@
         <v>51</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s" s="0">
         <v>221</v>
@@ -4901,7 +4901,7 @@
         <v>51</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s" s="0">
         <v>221</v>
@@ -4912,7 +4912,7 @@
         <v>51</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>221</v>
@@ -4923,7 +4923,7 @@
         <v>51</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>221</v>
@@ -4934,7 +4934,7 @@
         <v>51</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>221</v>
@@ -4945,7 +4945,7 @@
         <v>51</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>221</v>
@@ -4956,7 +4956,7 @@
         <v>51</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>221</v>
@@ -4967,7 +4967,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>221</v>
@@ -4978,7 +4978,7 @@
         <v>51</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>221</v>
@@ -4989,7 +4989,7 @@
         <v>51</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>221</v>
@@ -5000,7 +5000,7 @@
         <v>51</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>221</v>
@@ -5011,7 +5011,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>221</v>
@@ -5022,7 +5022,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>221</v>
@@ -5030,13 +5030,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>135</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43">
@@ -5044,10 +5044,10 @@
         <v>135</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44">
@@ -5055,7 +5055,7 @@
         <v>135</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>218</v>
@@ -5066,7 +5066,7 @@
         <v>135</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>218</v>
@@ -5077,7 +5077,7 @@
         <v>135</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>218</v>
@@ -5088,7 +5088,7 @@
         <v>135</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>218</v>
@@ -5099,7 +5099,7 @@
         <v>135</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>218</v>
@@ -5107,13 +5107,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="50">
@@ -5121,10 +5121,10 @@
         <v>71</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="51">
@@ -5132,10 +5132,10 @@
         <v>71</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="52">
@@ -5143,7 +5143,7 @@
         <v>71</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>215</v>
@@ -5154,10 +5154,10 @@
         <v>71</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>225</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54">
@@ -5165,10 +5165,10 @@
         <v>71</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="55">
@@ -5176,7 +5176,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C55" t="s" s="0">
         <v>218</v>
@@ -5187,21 +5187,21 @@
         <v>71</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58">
@@ -5209,10 +5209,10 @@
         <v>80</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="59">
@@ -5220,7 +5220,7 @@
         <v>80</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>221</v>
@@ -5231,7 +5231,7 @@
         <v>80</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>221</v>
@@ -5242,7 +5242,7 @@
         <v>80</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>221</v>
@@ -5253,7 +5253,7 @@
         <v>80</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>221</v>
@@ -5264,7 +5264,7 @@
         <v>80</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>221</v>
@@ -5272,13 +5272,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="65">
@@ -5286,10 +5286,10 @@
         <v>90</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66">
@@ -5297,10 +5297,10 @@
         <v>90</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67">
@@ -5308,21 +5308,21 @@
         <v>90</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69">
@@ -5330,7 +5330,7 @@
         <v>96</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>200</v>
@@ -5341,7 +5341,7 @@
         <v>96</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>200</v>
@@ -5352,7 +5352,7 @@
         <v>96</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>200</v>
@@ -5363,7 +5363,7 @@
         <v>96</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>200</v>
@@ -5374,7 +5374,7 @@
         <v>96</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>200</v>
@@ -5382,10 +5382,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>200</v>
@@ -5396,7 +5396,7 @@
         <v>97</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>200</v>
@@ -5407,7 +5407,7 @@
         <v>97</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>200</v>
@@ -5418,7 +5418,7 @@
         <v>97</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>200</v>
@@ -5429,7 +5429,7 @@
         <v>97</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>200</v>
@@ -5440,7 +5440,7 @@
         <v>97</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>200</v>
@@ -5451,7 +5451,7 @@
         <v>97</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>200</v>
@@ -5459,13 +5459,13 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="0">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -5473,10 +5473,10 @@
         <v>138</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>101</v>
+        <v>139</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83">
@@ -5484,7 +5484,7 @@
         <v>138</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C83" t="s" s="0">
         <v>218</v>
@@ -5495,7 +5495,7 @@
         <v>138</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s" s="0">
         <v>218</v>
@@ -5506,7 +5506,7 @@
         <v>138</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C85" t="s" s="0">
         <v>218</v>
@@ -5517,7 +5517,7 @@
         <v>138</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C86" t="s" s="0">
         <v>218</v>
@@ -5528,7 +5528,7 @@
         <v>138</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C87" t="s" s="0">
         <v>218</v>
@@ -5539,7 +5539,7 @@
         <v>138</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" t="s" s="0">
         <v>218</v>
@@ -5547,13 +5547,13 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="0">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90">
@@ -5561,10 +5561,10 @@
         <v>105</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91">
@@ -5572,7 +5572,7 @@
         <v>105</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C91" t="s" s="0">
         <v>221</v>
@@ -5580,13 +5580,13 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93">
@@ -5594,7 +5594,7 @@
         <v>109</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C93" t="s" s="0">
         <v>200</v>
@@ -5605,7 +5605,7 @@
         <v>109</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C94" t="s" s="0">
         <v>200</v>
@@ -5616,7 +5616,7 @@
         <v>109</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C95" t="s" s="0">
         <v>200</v>
@@ -5624,13 +5624,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="0">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97">
@@ -5638,10 +5638,10 @@
         <v>114</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="98">
@@ -5649,7 +5649,7 @@
         <v>114</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C98" t="s" s="0">
         <v>227</v>
@@ -5657,13 +5657,13 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="0">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100">
@@ -5671,10 +5671,10 @@
         <v>118</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
@@ -5682,10 +5682,10 @@
         <v>118</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102">
@@ -5693,10 +5693,10 @@
         <v>118</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103">
@@ -5704,10 +5704,10 @@
         <v>118</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104">
@@ -5715,7 +5715,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C104" t="s" s="0">
         <v>221</v>
@@ -5726,10 +5726,10 @@
         <v>118</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106">
@@ -5737,10 +5737,10 @@
         <v>118</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="107">
@@ -5748,10 +5748,10 @@
         <v>118</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108">
@@ -5759,10 +5759,10 @@
         <v>118</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109">
@@ -5770,7 +5770,7 @@
         <v>118</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s" s="0">
         <v>222</v>
@@ -5781,7 +5781,7 @@
         <v>118</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s" s="0">
         <v>222</v>
@@ -5792,7 +5792,7 @@
         <v>118</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" t="s" s="0">
         <v>222</v>
@@ -5800,13 +5800,13 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="0">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="113">
@@ -5814,7 +5814,7 @@
         <v>125</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C113" t="s" s="0">
         <v>200</v>
@@ -5825,7 +5825,7 @@
         <v>125</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" t="s" s="0">
         <v>200</v>
@@ -5833,10 +5833,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="0">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C115" t="s" s="0">
         <v>200</v>
@@ -5844,35 +5844,35 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>200</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s" s="0">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s" s="0">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119">
@@ -5880,10 +5880,10 @@
         <v>140</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120">
@@ -5891,7 +5891,7 @@
         <v>140</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C120" t="s" s="0">
         <v>218</v>
@@ -5899,23 +5899,45 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="0">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B122" t="s" s="0">
+      <c r="B123" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B124" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="C122" t="s" s="0">
+      <c r="C124" t="s" s="0">
         <v>221</v>
       </c>
     </row>
@@ -6656,7 +6678,7 @@
         <v>74</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
@@ -6698,7 +6720,7 @@
         <v>74</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -6712,7 +6734,7 @@
         <v>74</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -6754,7 +6776,7 @@
         <v>74</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -6782,7 +6804,7 @@
         <v>74</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>14</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -6838,7 +6860,7 @@
         <v>74</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>57</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -6866,7 +6888,7 @@
         <v>74</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20">
@@ -6880,7 +6902,7 @@
         <v>74</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>53</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -6922,7 +6944,7 @@
         <v>74</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>109</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -6930,13 +6952,13 @@
         <v>71</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
@@ -6944,13 +6966,13 @@
         <v>71</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26">
@@ -6958,13 +6980,13 @@
         <v>71</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27">
@@ -6972,13 +6994,13 @@
         <v>71</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>175</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28">
@@ -6992,7 +7014,7 @@
         <v>74</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -7006,7 +7028,7 @@
         <v>74</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -7042,13 +7064,13 @@
         <v>90</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>166</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -7056,13 +7078,13 @@
         <v>90</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D33" t="s" s="0">
-        <v>109</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34">
@@ -7098,13 +7120,13 @@
         <v>118</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D36" t="s" s="0">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37">
@@ -7112,13 +7134,13 @@
         <v>118</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
@@ -7126,13 +7148,13 @@
         <v>118</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39">
@@ -7140,13 +7162,13 @@
         <v>118</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40">
@@ -7154,13 +7176,13 @@
         <v>118</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41">
@@ -7168,13 +7190,13 @@
         <v>118</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42">
@@ -7182,13 +7204,13 @@
         <v>118</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43">
@@ -7196,13 +7218,13 @@
         <v>118</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
@@ -7210,13 +7232,13 @@
         <v>118</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
     </row>
     <row r="45">
@@ -7224,13 +7246,13 @@
         <v>118</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>74</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>166</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
